--- a/Files/template.xlsx
+++ b/Files/template.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CABA324-861E-4D7E-B5E4-94C79BE5B3B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="5424" yWindow="552" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZH" sheetId="1" r:id="rId1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -577,22 +578,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="59.7109375" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="59.6640625" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,18 +649,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="46.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/Files/template.xlsx
+++ b/Files/template.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CABA324-861E-4D7E-B5E4-94C79BE5B3B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5424" yWindow="552" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="765" yWindow="765" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="ZH" sheetId="1" r:id="rId1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -578,22 +577,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="59.6640625" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="59.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,18 +648,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="46.77734375" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
